--- a/hydromt_fiat/data/fiat/fiat_configuration.xlsx
+++ b/hydromt_fiat/data/fiat/fiat_configuration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\hydromt_fiat\hydromt_fiat\data\fiat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hydroMT\hydromt_fiat\hydromt_fiat\data\fiat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EFCA8E-A97B-47E1-86D7-02AF7A1BF863}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2900BC3-4596-48AE-8C35-D23CE6B39101}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ENG</t>
   </si>
@@ -36,55 +38,52 @@
     <t>USD</t>
   </si>
   <si>
-    <t>results</t>
-  </si>
-  <si>
-    <t>hazard</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>vulnerability</t>
-  </si>
-  <si>
-    <t>exposure</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>use (1/0)</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>max_damage</t>
-  </si>
-  <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t>map</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>raster</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>landuse</t>
-  </si>
-  <si>
-    <t>Risk</t>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Use (1/0)</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Raster</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Landuse</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Exposure</t>
+  </si>
+  <si>
+    <t>Vulnerability</t>
+  </si>
+  <si>
+    <t>Maximum Damage</t>
+  </si>
+  <si>
+    <t>Root</t>
+  </si>
+  <si>
+    <t>Hazard</t>
   </si>
 </sst>
 </file>
@@ -552,13 +551,13 @@
   <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" hidden="1" customWidth="1"/>
@@ -571,21 +570,18 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>2</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>4</v>
       </c>
       <c r="I1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" s="17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
         <v>0</v>
@@ -593,16 +589,16 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I4" s="17" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -612,39 +608,39 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="2"/>
     </row>

--- a/hydromt_fiat/data/fiat/fiat_configuration.xlsx
+++ b/hydromt_fiat/data/fiat/fiat_configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hydroMT\hydromt_fiat\hydromt_fiat\data\fiat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2900BC3-4596-48AE-8C35-D23CE6B39101}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36E9ADA-520A-4A67-88DA-4B5ABE8FBF96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="3" r:id="rId1"/>
@@ -30,19 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>ENG</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Use (1/0)</t>
   </si>
@@ -50,40 +38,64 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Function</t>
-  </si>
-  <si>
     <t>Map</t>
   </si>
   <si>
-    <t>Weight</t>
-  </si>
-  <si>
     <t>Raster</t>
   </si>
   <si>
     <t>Unit</t>
   </si>
   <si>
-    <t>Landuse</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>Exposure</t>
-  </si>
-  <si>
-    <t>Vulnerability</t>
-  </si>
-  <si>
     <t>Maximum Damage</t>
   </si>
   <si>
-    <t>Root</t>
-  </si>
-  <si>
-    <t>Hazard</t>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Scale Factor</t>
+  </si>
+  <si>
+    <t>Function ID</t>
+  </si>
+  <si>
+    <t>Vulnerability Path</t>
+  </si>
+  <si>
+    <t>Exposure Path</t>
+  </si>
+  <si>
+    <t>Output Path</t>
+  </si>
+  <si>
+    <t>Hazard Type</t>
+  </si>
+  <si>
+    <t>Rise Rate Filepath</t>
+  </si>
+  <si>
+    <t>INC File Filepath</t>
+  </si>
+  <si>
+    <t>Hazard Filepath</t>
+  </si>
+  <si>
+    <t>Arrival Time Filepath</t>
+  </si>
+  <si>
+    <t>Flow Speed Filepath</t>
+  </si>
+  <si>
+    <t>Shapefile</t>
+  </si>
+  <si>
+    <t>Case Name</t>
+  </si>
+  <si>
+    <t>Country Tag</t>
   </si>
 </sst>
 </file>
@@ -96,7 +108,7 @@
     <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,12 +125,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -188,25 +194,24 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -550,13 +555,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" hidden="1" customWidth="1"/>
@@ -569,43 +572,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
+      <c r="A1" s="1"/>
+      <c r="C1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>0</v>
+      <c r="A2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I4" s="17" t="s">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <f>COUNT(A7:A791)</f>
-        <v>0</v>
+      <c r="C5" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>12</v>
@@ -613,702 +630,700 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="L6" s="1"/>
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="C13" s="12"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="12"/>
-      <c r="K13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="C13" s="11"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="11"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="C14" s="12"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="12"/>
-      <c r="K14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="C14" s="11"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="11"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="C15" s="13"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="16"/>
-      <c r="K15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="C15" s="12"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="15"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="C16" s="12"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="12"/>
-      <c r="K16" s="5"/>
+      <c r="A16" s="4"/>
+      <c r="C16" s="11"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="11"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="C17" s="12"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="12"/>
-      <c r="K17" s="5"/>
+      <c r="A17" s="4"/>
+      <c r="C17" s="11"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="11"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="C18" s="12"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="12"/>
-      <c r="K18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="C18" s="11"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="11"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="C19" s="13"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="16"/>
-      <c r="K19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="C19" s="12"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="15"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="C20" s="13"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="16"/>
-      <c r="K20" s="5"/>
+      <c r="A20" s="4"/>
+      <c r="C20" s="12"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="15"/>
+      <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="C21" s="13"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="16"/>
-      <c r="K21" s="5"/>
+      <c r="A21" s="4"/>
+      <c r="C21" s="12"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="15"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="C22" s="13"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="16"/>
-      <c r="K22" s="5"/>
+      <c r="A22" s="4"/>
+      <c r="C22" s="12"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="15"/>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="C23" s="13"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="16"/>
-      <c r="K23" s="5"/>
+      <c r="A23" s="4"/>
+      <c r="C23" s="12"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="15"/>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="C24" s="12"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="12"/>
-      <c r="K24" s="5"/>
+      <c r="A24" s="4"/>
+      <c r="C24" s="11"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="11"/>
+      <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="C25" s="12"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="12"/>
-      <c r="K25" s="5"/>
+      <c r="A25" s="4"/>
+      <c r="C25" s="11"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="11"/>
+      <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="C26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="K26" s="5"/>
+      <c r="A26" s="4"/>
+      <c r="C26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="C27" s="13"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="16"/>
-      <c r="K27" s="5"/>
-      <c r="M27" s="10"/>
+      <c r="A27" s="4"/>
+      <c r="C27" s="12"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="15"/>
+      <c r="K27" s="4"/>
+      <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="C28" s="13"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="16"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="10"/>
+      <c r="A28" s="4"/>
+      <c r="C28" s="12"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="15"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="C29" s="13"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="16"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="10"/>
+      <c r="A29" s="4"/>
+      <c r="C29" s="12"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="15"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="9"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="C30" s="12"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="12"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="10"/>
+      <c r="A30" s="4"/>
+      <c r="C30" s="11"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="11"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="C31" s="12"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="12"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="10"/>
+      <c r="A31" s="4"/>
+      <c r="C31" s="11"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="11"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="9"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="C32" s="12"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="12"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="10"/>
+      <c r="A32" s="4"/>
+      <c r="C32" s="11"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="11"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="9"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="C33" s="13"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="16"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="10"/>
+      <c r="A33" s="4"/>
+      <c r="C33" s="12"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="15"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="9"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="C34" s="12"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="16"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="10"/>
+      <c r="A34" s="4"/>
+      <c r="C34" s="11"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="15"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="9"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="C35" s="12"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="16"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="10"/>
+      <c r="A35" s="4"/>
+      <c r="C35" s="11"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="15"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="C36" s="12"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="16"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="10"/>
+      <c r="A36" s="4"/>
+      <c r="C36" s="11"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="15"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="C37" s="13"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="16"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="10"/>
+      <c r="A37" s="4"/>
+      <c r="C37" s="12"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="15"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="9"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="C38" s="12"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="16"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="10"/>
+      <c r="A38" s="4"/>
+      <c r="C38" s="11"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="15"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="9"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="C39" s="12"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="16"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="10"/>
+      <c r="A39" s="4"/>
+      <c r="C39" s="11"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="15"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="9"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="C40" s="11"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="16"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="10"/>
+      <c r="A40" s="4"/>
+      <c r="C40" s="10"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="15"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="9"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="C41" s="12"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="16"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="10"/>
+      <c r="A41" s="4"/>
+      <c r="C41" s="11"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="15"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="9"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="C42" s="12"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="16"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="10"/>
+      <c r="A42" s="4"/>
+      <c r="C42" s="11"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="15"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="9"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="C43" s="12"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="16"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="10"/>
+      <c r="A43" s="4"/>
+      <c r="C43" s="11"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="15"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="9"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="C44" s="12"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="16"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="10"/>
+      <c r="A44" s="4"/>
+      <c r="C44" s="11"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="15"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="9"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="C45" s="12"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="16"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="10"/>
+      <c r="A45" s="4"/>
+      <c r="C45" s="11"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="15"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="9"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="C46" s="12"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="16"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="10"/>
+      <c r="A46" s="4"/>
+      <c r="C46" s="11"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="15"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="9"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="C47" s="12"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="16"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="10"/>
+      <c r="A47" s="4"/>
+      <c r="C47" s="11"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="15"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="9"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="16"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="10"/>
+      <c r="A48" s="4"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="15"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="9"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="16"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="10"/>
+      <c r="A49" s="4"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="15"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="9"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="16"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="10"/>
+      <c r="A50" s="4"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="15"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="9"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="C51" s="14"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="16"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="10"/>
+      <c r="A51" s="4"/>
+      <c r="C51" s="13"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="15"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="9"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="C52" s="14"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="16"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="10"/>
+      <c r="A52" s="4"/>
+      <c r="C52" s="13"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="15"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="9"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="C53" s="14"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="16"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="10"/>
+      <c r="A53" s="4"/>
+      <c r="C53" s="13"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="15"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="9"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="C54" s="14"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="16"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="10"/>
+      <c r="A54" s="4"/>
+      <c r="C54" s="13"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="15"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="9"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="C55" s="14"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="16"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="10"/>
+      <c r="A55" s="4"/>
+      <c r="C55" s="13"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="15"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="9"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="16"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="10"/>
+      <c r="A56" s="4"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="15"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="9"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="16"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="10"/>
+      <c r="A57" s="4"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="15"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="9"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="16"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="10"/>
+      <c r="A58" s="4"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="15"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="9"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="C59" s="15"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="16"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="10"/>
+      <c r="A59" s="4"/>
+      <c r="C59" s="14"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="15"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="9"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="C60" s="15"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="16"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="10"/>
+      <c r="A60" s="4"/>
+      <c r="C60" s="14"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="15"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="9"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="16"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="10"/>
+      <c r="A61" s="4"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="15"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="9"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="C62" s="12"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="16"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="10"/>
+      <c r="A62" s="4"/>
+      <c r="C62" s="11"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="15"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="9"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D63" s="9"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="7"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="10"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="6"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="9"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D64" s="9"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="7"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="10"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="6"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="9"/>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D65" s="9"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="7"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="10"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="6"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="9"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D66" s="9"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="7"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="10"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="6"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="9"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D67" s="9"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="7"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="10"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="6"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="9"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D68" s="9"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="7"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="10"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="6"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="9"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B69" s="8"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="7"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="10"/>
+      <c r="B69" s="7"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="6"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="9"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D70" s="9"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="7"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="10"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="6"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="9"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D71" s="9"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="7"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="10"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="6"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="9"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D72" s="9"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="7"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="10"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="6"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="9"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D73" s="9"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="7"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="10"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="6"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="9"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D74" s="9"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="7"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="10"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="6"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="9"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D75" s="9"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="7"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="10"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="6"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="9"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D76" s="9"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="7"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="10"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="6"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="9"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D77" s="9"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="7"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="10"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="6"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="9"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D78" s="9"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="7"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="10"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="6"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="9"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D79" s="9"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="7"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="10"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="6"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="9"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D80" s="9"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="7"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="10"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="6"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="9"/>
     </row>
     <row r="81" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D81" s="9"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="7"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="10"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="6"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="9"/>
     </row>
     <row r="82" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D82" s="9"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="7"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="10"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="6"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="9"/>
     </row>
     <row r="83" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D83" s="9"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="7"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="10"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="6"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="9"/>
     </row>
     <row r="84" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D84" s="9"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="7"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="10"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="6"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="9"/>
     </row>
     <row r="85" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D85" s="9"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="7"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="10"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="6"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="9"/>
     </row>
     <row r="86" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E86" s="10"/>
-      <c r="F86" s="7"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="6"/>
     </row>
     <row r="87" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D87" s="9"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="7"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="6"/>
     </row>
     <row r="88" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D88" s="9"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="7"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="6"/>
     </row>
     <row r="89" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D89" s="9"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="7"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="6"/>
     </row>
     <row r="90" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D90" s="9"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="7"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="6"/>
     </row>
     <row r="91" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D91" s="9"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="7"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="6"/>
     </row>
     <row r="92" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D92" s="9"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="7"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="6"/>
     </row>
     <row r="93" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D93" s="9"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="7"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="6"/>
     </row>
     <row r="94" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D94" s="9"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="7"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="6"/>
     </row>
     <row r="95" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D95" s="9"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="7"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="6"/>
     </row>
     <row r="96" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D96" s="9"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="7"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="6"/>
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D97" s="9"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="7"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="6"/>
     </row>
     <row r="98" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D98" s="9"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="7"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/hydromt_fiat/data/fiat/fiat_configuration.xlsx
+++ b/hydromt_fiat/data/fiat/fiat_configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hydroMT\hydromt_fiat\hydromt_fiat\data\fiat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36E9ADA-520A-4A67-88DA-4B5ABE8FBF96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D334E10-1117-4290-8698-250E3ED7E9BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Use (1/0)</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Country Tag</t>
+  </si>
+  <si>
+    <t>BU</t>
   </si>
 </sst>
 </file>
@@ -555,7 +558,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -563,16 +568,18 @@
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" customWidth="1"/>
     <col min="10" max="10" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="C1" s="16" t="s">
         <v>15</v>
       </c>
@@ -594,8 +601,8 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>21</v>
+      <c r="A3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>17</v>
@@ -618,8 +625,8 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
+      <c r="A5" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>19</v>
@@ -638,7 +645,9 @@
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
         <v>9</v>

--- a/hydromt_fiat/data/fiat/fiat_configuration.xlsx
+++ b/hydromt_fiat/data/fiat/fiat_configuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hydroMT\hydromt_fiat\hydromt_fiat\data\fiat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D334E10-1117-4290-8698-250E3ED7E9BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145CC388-B659-4451-813F-73FC27492F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
